--- a/data/trans_camb/P19C05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 2,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 3,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,91; 1,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 4,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 3,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 2,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 2,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 2,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; 0,71</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,27%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,24; 107,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,5; 189,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,31; 115,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,81; 387,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,93; 300,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,4; 215,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,71; 140,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,83; 142,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,4; 44,43</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 2,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 3,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 4,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 5,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 1,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 3,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 2,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 2,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 2,6</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,11%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,02; 116,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,66; 161,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,46; 192,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,36; 193,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,09; 74,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,96; 109,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,23; 104,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,49; 68,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,01; 96,37</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 4,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 0,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,56; 0,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 2,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 1,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,64; -1,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 2,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,36; -0,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,41; -1,61</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,69%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,59; 88,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,88; 7,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,58; 3,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,16; 31,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,65; 19,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,15; -14,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,66; 34,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,21; -2,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,03; -22,72</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,85</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 5,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,84; 1,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,12; -1,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 7,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,36; 0,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,62; -2,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 5,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,25; -0,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,63; -3,37</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,73%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,37%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,53%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,58; 52,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,39; 11,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,72; -15,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,62; 76,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,93; 5,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,66; -26,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,66; 46,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,63; -3,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,3; -30,38</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,81</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,59</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,73</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,58</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,85; 7,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,15; -2,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,21; -8,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,33; 6,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,3; -0,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,33; -10,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 5,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,2; -3,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,57; -10,83</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,72%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,83%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,82%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,8%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,09%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,49; 35,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,84; -10,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,67; -38,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,84; 35,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,48; -3,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,12; -48,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,99; 23,57</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,32; -15,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,2; -48,8</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,47</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,77</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,31</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,31</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,96</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,9</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,2; 6,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,93; -6,58</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,75; -10,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,79; 4,47</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,71; -14,98</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,35; -16,56</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,77; 3,45</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,5; -13,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,3; -15,63</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,8%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,49%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,2%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,14%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,18%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,17%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,6%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,05%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,14%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,81; 15,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,98; -16,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,65; -27,76</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,5; 8,99</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,98; -31,68</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,65; -34,37</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,67; 7,83</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,51; -28,82</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,45; -34,99</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,86</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 3,38</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; -1,08</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; -1,35</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 3,99</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; -2,52</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; -2,64</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 3,19</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,15; -2,37</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; -2,54</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,65%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,07%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,89%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,27%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,27%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,85%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 26,24</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,01; -8,31</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,31; -11,04</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 26,34</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,33; -17,17</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,68; -17,66</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 22,1</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,3; -16,15</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,13; -17,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-1,32</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 1,51</t>
+          <t>-3,9; 1,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 2,07</t>
+          <t>-2,73; 2,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 0,71</t>
+          <t>-2,71; 1,0</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-57,2%</t>
+          <t>-56,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-40,56%</t>
+          <t>-40,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-50,27%</t>
+          <t>-49,69%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-98,31; 115,26</t>
+          <t>-98,24; 124,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-98,4; 215,54</t>
+          <t>-97,99; 227,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-87,4; 44,43</t>
+          <t>-87,29; 58,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,35</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 4,13</t>
+          <t>-1,74; 4,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 3,02</t>
+          <t>-2,72; 2,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,6</t>
+          <t>-1,39; 2,29</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>-4,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>9,9%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,46; 192,25</t>
+          <t>-42,58; 200,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,96; 109,4</t>
+          <t>-58,0; 94,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 96,37</t>
+          <t>-34,99; 85,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-3,35</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 0,05</t>
+          <t>-5,55; 0,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; -1,08</t>
+          <t>-6,51; -0,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -1,61</t>
+          <t>-5,36; -1,5</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-41,63%</t>
+          <t>-41,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-46,32%</t>
+          <t>-45,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-44,69%</t>
+          <t>-44,01%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,58; 3,99</t>
+          <t>-66,75; 4,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,15; -14,19</t>
+          <t>-63,77; -12,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-61,03; -22,72</t>
+          <t>-60,37; -22,05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,84</t>
+          <t>-7,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>-6,74</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,12; -1,71</t>
+          <t>-12,44; -3,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,62; -2,79</t>
+          <t>-9,72; -2,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -3,37</t>
+          <t>-10,5; -4,16</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-44,73%</t>
+          <t>-56,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-46,37%</t>
+          <t>-47,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-45,53%</t>
+          <t>-52,5%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,72; -15,96</t>
+          <t>-82,79; -29,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,66; -26,36</t>
+          <t>-63,27; -29,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,3; -30,38</t>
+          <t>-73,8; -36,94</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-14,59</t>
+          <t>-14,6</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-14,73</t>
+          <t>-14,69</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-14,58</t>
+          <t>-14,56</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-20,21; -8,4</t>
+          <t>-20,17; -8,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-20,33; -10,52</t>
+          <t>-20,3; -10,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-18,57; -10,83</t>
+          <t>-18,49; -10,75</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-55,83%</t>
+          <t>-55,89%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-60,82%</t>
+          <t>-60,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-58,09%</t>
+          <t>-58,01%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-66,67; -38,88</t>
+          <t>-66,71; -38,68</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-70,12; -48,29</t>
+          <t>-69,88; -48,05</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-66,2; -48,8</t>
+          <t>-66,08; -48,86</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-13,47</t>
+          <t>-13,54</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-16,77</t>
+          <t>-20,29</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-21,31</t>
+          <t>-14,15</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-22,31</t>
+          <t>-26,49</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-17,96</t>
+          <t>-13,84</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-19,9</t>
+          <t>-23,92</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 6,19</t>
+          <t>-7,71; 10,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-20,93; -6,58</t>
+          <t>-22,6; -4,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-22,75; -10,51</t>
+          <t>-27,21; -13,07</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 4,47</t>
+          <t>-7,79; 8,98</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-27,71; -14,98</t>
+          <t>-21,55; -5,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-32,35; -16,56</t>
+          <t>-39,59; -16,09</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 3,45</t>
+          <t>-5,01; 6,9</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-22,5; -13,25</t>
+          <t>-20,08; -7,99</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-26,3; -15,63</t>
+          <t>-34,68; -18,31</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,8%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-31,49%</t>
+          <t>-34,81%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-39,2%</t>
+          <t>-52,19%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-42,18%</t>
+          <t>-33,9%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-44,17%</t>
+          <t>-63,46%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-2,6%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-38,05%</t>
+          <t>-34,26%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-42,14%</t>
+          <t>-59,18%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 15,42</t>
+          <t>-18,34; 32,4</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,98; -16,27</t>
+          <t>-53,41; -12,77</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-48,65; -27,76</t>
+          <t>-62,29; -38,54</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 8,99</t>
+          <t>-17,32; 23,81</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-51,98; -31,68</t>
+          <t>-48,26; -15,99</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-61,65; -34,37</t>
+          <t>-86,21; -40,12</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 7,83</t>
+          <t>-11,37; 18,58</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-45,51; -28,82</t>
+          <t>-46,37; -21,36</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-55,45; -34,99</t>
+          <t>-78,76; -46,79</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-13,82</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-13,5</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>-29,76</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>-21,12</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-5,24</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-23,67</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-18,33</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 3,38</t>
+          <t>-15,34; 7,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -1,08</t>
+          <t>-25,3; -2,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -1,35</t>
+          <t>-23,96; -3,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 3,99</t>
+          <t>-15,31; 3,29</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -2,52</t>
+          <t>-39,63; -19,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,2; -2,64</t>
+          <t>-28,23; -12,89</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,19</t>
+          <t>-12,42; 1,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,15; -2,37</t>
+          <t>-30,72; -16,12</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -2,54</t>
+          <t>-24,39; -12,2</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>-9,54%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-21,65%</t>
+          <t>-28,02%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-24,07%</t>
+          <t>-27,38%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>-9,1%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-27,89%</t>
+          <t>-48,84%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-27,27%</t>
+          <t>-34,66%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>-9,26%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-25,27%</t>
+          <t>-41,86%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-25,85%</t>
+          <t>-32,42%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-28,1; 16,56</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-45,59; -6,27</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-41,56; -7,73</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-23,0; 6,31</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-60,98; -34,68</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-42,68; -23,97</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-20,38; 3,79</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-51,96; -30,13</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-40,03; -23,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-2,94</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-4,03</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-4,5</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-5,01</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-3,77</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-4,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 3,38</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; -1,08</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; -2,2</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 3,99</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; -2,52</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-7,41; -3,18</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 3,19</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; -2,37</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; -3,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-21,65%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-29,68%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>13,02%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-27,89%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-31,08%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>11,68%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-25,27%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-30,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-2,47; 26,24</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-32,01; -8,31</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-34,31; -11,04</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-44,14; -17,48</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-0,54; 26,34</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-37,33; -17,17</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-35,68; -17,66</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-44,21; -21,57</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>2,06; 22,1</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-32,3; -16,15</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-32,13; -17,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-39,28; -22,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P19C05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 2,11</t>
+          <t>-2,56; 2,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 3,47</t>
+          <t>-2,05; 3,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,67</t>
+          <t>-4,16; 1,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 4,89</t>
+          <t>-0,3; 4,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 3,3</t>
+          <t>-1,29; 3,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,08</t>
+          <t>-2,62; 2,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,59</t>
+          <t>-0,84; 2,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,62</t>
+          <t>-0,89; 2,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,0</t>
+          <t>-2,89; 1,05</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-62,24; 107,91</t>
+          <t>-55,76; 128,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,5; 189,68</t>
+          <t>-52,79; 174,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-98,24; 124,96</t>
+          <t>-98,51; 146,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 387,28</t>
+          <t>-18,33; 391,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,93; 300,98</t>
+          <t>-45,34; 327,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-97,99; 227,47</t>
+          <t>-97,17; 277,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,71; 140,0</t>
+          <t>-27,56; 142,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 142,32</t>
+          <t>-28,67; 126,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-87,29; 58,48</t>
+          <t>-87,07; 89,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,36</t>
+          <t>-1,91; 2,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,54</t>
+          <t>-1,22; 3,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,35</t>
+          <t>-1,94; 3,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,34</t>
+          <t>-0,14; 4,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,96</t>
+          <t>-2,63; 1,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,58</t>
+          <t>-2,96; 2,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 2,93</t>
+          <t>-0,55; 2,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,01</t>
+          <t>-1,26; 2,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,29</t>
+          <t>-1,5; 2,48</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,02; 116,79</t>
+          <t>-42,54; 110,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,66; 161,87</t>
+          <t>-31,07; 146,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 200,44</t>
+          <t>-49,3; 151,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 193,83</t>
+          <t>-7,42; 183,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,09; 74,56</t>
+          <t>-52,23; 70,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,0; 94,61</t>
+          <t>-61,2; 94,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 104,06</t>
+          <t>-13,33; 94,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 68,19</t>
+          <t>-29,42; 79,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,99; 85,84</t>
+          <t>-36,68; 89,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,43</t>
+          <t>-1,86; 4,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 0,25</t>
+          <t>-5,62; 0,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 0,11</t>
+          <t>-5,51; 0,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 2,06</t>
+          <t>-4,26; 1,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,28</t>
+          <t>-4,69; 1,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,51; -0,99</t>
+          <t>-6,8; -1,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,21</t>
+          <t>-2,48; 2,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; -0,22</t>
+          <t>-4,45; -0,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; -1,5</t>
+          <t>-5,38; -1,46</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 88,3</t>
+          <t>-23,1; 87,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,88; 7,48</t>
+          <t>-63,75; 11,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,75; 4,2</t>
+          <t>-66,18; 6,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,16; 31,7</t>
+          <t>-41,19; 27,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,65; 19,22</t>
+          <t>-47,14; 25,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,77; -12,5</t>
+          <t>-64,4; -20,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 34,13</t>
+          <t>-27,58; 34,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,21; -2,03</t>
+          <t>-50,21; -1,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-60,37; -22,05</t>
+          <t>-60,62; -21,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 5,71</t>
+          <t>-3,97; 5,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 1,05</t>
+          <t>-7,45; 1,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -3,19</t>
+          <t>-13,73; -2,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 7,35</t>
+          <t>-1,65; 7,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 0,43</t>
+          <t>-7,35; 0,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -2,85</t>
+          <t>-9,53; -2,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 5,15</t>
+          <t>-1,3; 5,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,25; -0,48</t>
+          <t>-6,23; -0,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -4,16</t>
+          <t>-10,53; -4,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 52,88</t>
+          <t>-24,89; 52,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 11,47</t>
+          <t>-48,64; 10,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-82,79; -29,72</t>
+          <t>-83,68; -26,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 76,82</t>
+          <t>-11,23; 78,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,93; 5,39</t>
+          <t>-48,38; 9,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-63,27; -29,03</t>
+          <t>-62,67; -24,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 46,16</t>
+          <t>-8,87; 45,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-42,63; -3,91</t>
+          <t>-43,41; -2,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-73,8; -36,94</t>
+          <t>-72,42; -36,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 7,76</t>
+          <t>-7,03; 7,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,15; -2,13</t>
+          <t>-15,66; -2,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-20,17; -8,4</t>
+          <t>-20,14; -9,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 6,86</t>
+          <t>-7,07; 5,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,3; -0,75</t>
+          <t>-12,59; -0,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-20,3; -10,43</t>
+          <t>-19,93; -9,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 5,33</t>
+          <t>-4,82; 5,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,2; -3,35</t>
+          <t>-11,98; -2,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-18,49; -10,75</t>
+          <t>-18,22; -10,46</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 35,23</t>
+          <t>-22,58; 37,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-52,84; -10,34</t>
+          <t>-52,66; -8,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-66,71; -38,68</t>
+          <t>-67,07; -42,24</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 35,12</t>
+          <t>-25,58; 28,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-47,48; -3,24</t>
+          <t>-47,2; -3,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-69,88; -48,05</t>
+          <t>-69,9; -47,73</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 23,57</t>
+          <t>-17,25; 22,04</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-44,32; -15,2</t>
+          <t>-43,53; -13,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-66,08; -48,86</t>
+          <t>-65,68; -48,25</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 10,75</t>
+          <t>-7,03; 10,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-22,6; -4,02</t>
+          <t>-22,12; -4,4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-27,21; -13,07</t>
+          <t>-27,41; -13,28</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 8,98</t>
+          <t>-7,4; 9,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-21,55; -5,54</t>
+          <t>-22,16; -5,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-39,59; -16,09</t>
+          <t>-42,21; -17,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 6,9</t>
+          <t>-5,35; 6,61</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-20,08; -7,99</t>
+          <t>-19,83; -7,53</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-34,68; -18,31</t>
+          <t>-35,05; -17,75</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 32,4</t>
+          <t>-16,8; 30,64</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-53,41; -12,77</t>
+          <t>-51,53; -13,06</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-62,29; -38,54</t>
+          <t>-62,49; -38,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 23,81</t>
+          <t>-16,28; 24,35</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-48,26; -15,99</t>
+          <t>-48,75; -15,71</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-86,21; -40,12</t>
+          <t>-86,78; -41,67</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 18,58</t>
+          <t>-12,17; 17,83</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-46,37; -21,36</t>
+          <t>-45,8; -19,92</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-78,76; -46,79</t>
+          <t>-78,63; -45,53</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 7,46</t>
+          <t>-16,47; 6,01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-25,3; -2,78</t>
+          <t>-24,89; -3,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-23,96; -3,04</t>
+          <t>-24,25; -4,3</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 3,29</t>
+          <t>-14,3; 3,16</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-39,63; -19,54</t>
+          <t>-39,14; -20,01</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-28,23; -12,89</t>
+          <t>-29,01; -13,23</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 1,91</t>
+          <t>-12,84; 1,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-30,72; -16,12</t>
+          <t>-31,15; -15,77</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-24,39; -12,2</t>
+          <t>-24,21; -12,04</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 16,56</t>
+          <t>-29,61; 13,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-45,59; -6,27</t>
+          <t>-44,37; -7,19</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-41,56; -7,73</t>
+          <t>-41,94; -10,59</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 6,31</t>
+          <t>-21,9; 5,83</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-60,98; -34,68</t>
+          <t>-60,46; -35,25</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -23,97</t>
+          <t>-43,51; -24,4</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 3,79</t>
+          <t>-21,02; 3,86</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-51,96; -30,13</t>
+          <t>-52,0; -29,66</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-40,03; -23,34</t>
+          <t>-39,59; -23,23</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 3,38</t>
+          <t>-0,6; 3,33</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -1,08</t>
+          <t>-4,86; -1,13</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,28; -2,2</t>
+          <t>-6,43; -2,15</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 3,99</t>
+          <t>0,14; 3,98</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -2,52</t>
+          <t>-6,21; -2,58</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -3,18</t>
+          <t>-7,53; -3,12</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,19</t>
+          <t>0,42; 3,25</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-5,15; -2,37</t>
+          <t>-5,02; -2,46</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-6,07; -3,12</t>
+          <t>-6,34; -3,25</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 26,24</t>
+          <t>-4,19; 26,18</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-32,01; -8,31</t>
+          <t>-33,01; -8,87</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-44,14; -17,48</t>
+          <t>-45,19; -17,27</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 26,34</t>
+          <t>0,86; 26,31</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-37,33; -17,17</t>
+          <t>-36,72; -16,71</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-44,21; -21,57</t>
+          <t>-45,19; -20,92</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>2,06; 22,1</t>
+          <t>2,8; 22,8</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-32,3; -16,15</t>
+          <t>-32,03; -16,88</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-39,28; -22,26</t>
+          <t>-40,98; -22,72</t>
         </is>
       </c>
     </row>
